--- a/03 PE/005 添加弹窗代码到节.xlsx
+++ b/03 PE/005 添加弹窗代码到节.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D321460-9F1F-4D39-BB34-9273A7B5BE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47520A18-57B8-4651-936A-DAE20D6DBA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="500">
   <si>
     <t>1、获取MessageBox地址，构造ShellCode代码.</t>
   </si>
@@ -1548,6 +1548,10 @@
   </si>
   <si>
     <t>#endif // !defined(AFX_STDAFX_H__3AE8E0C0_5F1D_46D1_A89F_D354824D2102__INCLUDED_)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    对大多数32位窗口程序有效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1969,7 +1973,7 @@
   <dimension ref="B5:Q16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:J9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2020,11 +2024,11 @@
       <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="4"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2035,6 +2039,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2635,8 +2644,8 @@
   </sheetPr>
   <dimension ref="B4:M80"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3861,7 +3870,7 @@
     <hyperlink ref="D45" location="petool.h!B336" display="AddMessageBoxToSection(file_buffer,messageBox_title,messageBox_content);" xr:uid="{C2A7B16B-E836-4469-AE4B-51D4605245CE}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3873,8 +3882,8 @@
   </sheetPr>
   <dimension ref="B4:J437"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A347" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B336" sqref="B336"/>
+    <sheetView showGridLines="0" topLeftCell="A414" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H438" sqref="H438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -9396,7 +9405,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -9405,8 +9414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ADA19B-2233-473C-B946-D1E218226B85}">
   <dimension ref="B3:M297"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M297"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -14090,7 +14099,7 @@
   <dimension ref="B3:L37"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:L37"/>
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -14605,5 +14614,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/03 PE/005 添加弹窗代码到节.xlsx
+++ b/03 PE/005 添加弹窗代码到节.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47520A18-57B8-4651-936A-DAE20D6DBA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB87247-F5C5-46D5-B955-5644783D91FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9552" yWindow="0" windowWidth="13116" windowHeight="10908" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="501">
   <si>
     <t>1、获取MessageBox地址，构造ShellCode代码.</t>
   </si>
@@ -1551,6 +1551,10 @@
   </si>
   <si>
     <t xml:space="preserve">    对大多数32位窗口程序有效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     仅限于当前主机，且重启后就失效</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1972,7 +1976,7 @@
   </sheetPr>
   <dimension ref="B5:Q16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2255,10 +2259,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B4:K30"/>
+  <dimension ref="B4:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2494,7 +2498,9 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>500</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2507,11 +2513,9 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2521,10 +2525,10 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2537,7 +2541,7 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
@@ -2551,7 +2555,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="1"/>
@@ -2565,7 +2569,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="1"/>
@@ -2579,7 +2583,7 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="1"/>
@@ -2590,10 +2594,10 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="1"/>
@@ -2605,11 +2609,11 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="3"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2620,7 +2624,9 @@
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2628,6 +2634,18 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/03 PE/005 添加弹窗代码到节.xlsx
+++ b/03 PE/005 添加弹窗代码到节.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB87247-F5C5-46D5-B955-5644783D91FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DE2469-2886-4C0D-B4A7-8AC4ECFEF025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9552" yWindow="0" windowWidth="13116" windowHeight="10908" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="503">
   <si>
     <t>1、获取MessageBox地址，构造ShellCode代码.</t>
   </si>
@@ -1550,11 +1550,19 @@
     <t>#endif // !defined(AFX_STDAFX_H__3AE8E0C0_5F1D_46D1_A89F_D354824D2102__INCLUDED_)</t>
   </si>
   <si>
-    <t xml:space="preserve">    对大多数32位窗口程序有效</t>
+    <t xml:space="preserve">     仅限于当前主机，且重启后就失效</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">     仅限于当前主机，且重启后就失效</t>
+    <t xml:space="preserve">  有些程序有反调试(Dtdebug都无法调试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  自己编译的exe，如果没有链接user32.dll，也无效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  仅对一部分32位exe程序有效</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1974,154 +1982,184 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B5:Q16"/>
+  <dimension ref="B5:S16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K6" s="1" t="s">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="N6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K8" s="1" t="s">
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="N8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="4"/>
+      <c r="G9" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G10" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+        <v>501</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K11" s="1" t="s">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="N11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K13" s="1" t="s">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="N13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K15" s="6" t="s">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B5" location="'01'!A1" display="1、获取MessageBox地址，构造ShellCode代码." xr:uid="{B285EBCD-3294-4EF0-853C-9FA5FDCE1684}"/>
     <hyperlink ref="B7" location="'02'!A1" display="2、构造shellcode" xr:uid="{433C17BF-F3F5-4EA9-A577-65864EE1F178}"/>
-    <hyperlink ref="G9:J9" location="AddMessageBoxToExe!A1" display="在代码空白区添加代码(代码实现)" xr:uid="{3A1ED126-171C-4E69-9A0E-4153647AEF89}"/>
+    <hyperlink ref="F9:J9" location="AddMessageBoxToExe!A1" display="在代码空白区添加代码(代码实现)" xr:uid="{3A1ED126-171C-4E69-9A0E-4153647AEF89}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2261,7 +2299,7 @@
   </sheetPr>
   <dimension ref="B4:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2499,7 +2537,7 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>

--- a/03 PE/005 添加弹窗代码到节.xlsx
+++ b/03 PE/005 添加弹窗代码到节.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DE2469-2886-4C0D-B4A7-8AC4ECFEF025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E079205-38CE-4C90-89FA-0B6BE4368ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="505">
   <si>
     <t>1、获取MessageBox地址，构造ShellCode代码.</t>
   </si>
@@ -1563,6 +1563,14 @@
   </si>
   <si>
     <t xml:space="preserve">  仅对一部分32位exe程序有效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    会导致地址重复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ImageBase不一定确定VR，因为一个exe运行可能包含多个pe文件，</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1985,7 +1993,7 @@
   <dimension ref="B5:S16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2081,7 +2089,9 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>504</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
@@ -2096,7 +2106,9 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>503</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
